--- a/data/trans_orig/P6606-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6606-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>76146</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62459</v>
+        <v>64026</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90177</v>
+        <v>91308</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4312480733577166</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3537318955564074</v>
+        <v>0.3626062051332549</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5107133331264668</v>
+        <v>0.517116510660993</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>117</v>
@@ -765,19 +765,19 @@
         <v>115975</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>105671</v>
+        <v>106919</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>123678</v>
+        <v>124205</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8303176967799465</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7565420365891203</v>
+        <v>0.7654784574108756</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8854607902781771</v>
+        <v>0.8892377294491667</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>191</v>
@@ -786,19 +786,19 @@
         <v>192121</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>174757</v>
+        <v>174040</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>210224</v>
+        <v>209218</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6075039806670675</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.552597875035854</v>
+        <v>0.5503301743840864</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.664749056490636</v>
+        <v>0.6615671773222126</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>44290</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33943</v>
+        <v>32230</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57734</v>
+        <v>56083</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2508342404468429</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1922344420128444</v>
+        <v>0.1825322819095424</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3269753579416776</v>
+        <v>0.317621985551315</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -836,19 +836,19 @@
         <v>19997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12968</v>
+        <v>12698</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29504</v>
+        <v>29007</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1431668082686173</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09284239523941928</v>
+        <v>0.0909126616479513</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2112315884345348</v>
+        <v>0.207672576436845</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -857,19 +857,19 @@
         <v>64287</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50754</v>
+        <v>51959</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79989</v>
+        <v>81494</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2032810822197062</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1604891300162859</v>
+        <v>0.1642995350926681</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2529340723872052</v>
+        <v>0.2576925684991193</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>35639</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25536</v>
+        <v>25209</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47335</v>
+        <v>47693</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2018367777541717</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1446226618981312</v>
+        <v>0.1427673723098732</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2680787554792266</v>
+        <v>0.2701068965970008</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -907,19 +907,19 @@
         <v>3704</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>952</v>
+        <v>913</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9397</v>
+        <v>8541</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02651549495143623</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006818520594322281</v>
+        <v>0.006533580931890281</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06727568861803268</v>
+        <v>0.06114695667039187</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>40</v>
@@ -928,19 +928,19 @@
         <v>39342</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29102</v>
+        <v>27930</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>52124</v>
+        <v>51490</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1244031422245122</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0920241804835136</v>
+        <v>0.0883176544877855</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1648221518579635</v>
+        <v>0.1628155772694232</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>20497</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12308</v>
+        <v>12585</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30133</v>
+        <v>31550</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1160809084412686</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0697082289345093</v>
+        <v>0.07127318595562944</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.170657053259641</v>
+        <v>0.1786808665620268</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>20496</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12947</v>
+        <v>13109</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31139</v>
+        <v>30709</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06481179488871408</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04093994973148251</v>
+        <v>0.04145147503940114</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09846348203092409</v>
+        <v>0.09710430731548667</v>
       </c>
     </row>
     <row r="8">
@@ -1095,19 +1095,19 @@
         <v>280394</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>257373</v>
+        <v>254270</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>304695</v>
+        <v>304159</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5047253396982174</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4632869526909796</v>
+        <v>0.4577021108576316</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5484695773077273</v>
+        <v>0.5475047108683961</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>262</v>
@@ -1116,19 +1116,19 @@
         <v>278064</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>261285</v>
+        <v>262409</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>292131</v>
+        <v>291586</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8166425738534657</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7673652783097575</v>
+        <v>0.7706658550880615</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8579562127421548</v>
+        <v>0.8563576985477936</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>530</v>
@@ -1137,19 +1137,19 @@
         <v>558457</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>527881</v>
+        <v>529463</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>585269</v>
+        <v>590408</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6232551863302331</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5891312267068749</v>
+        <v>0.5908965716074506</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6531775226686033</v>
+        <v>0.6589128486367433</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>122811</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>101891</v>
+        <v>105882</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144679</v>
+        <v>144714</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.221067106174743</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1834107401727385</v>
+        <v>0.1905943550618411</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2604306685289185</v>
+        <v>0.2604935286100812</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1187,19 +1187,19 @@
         <v>47203</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34208</v>
+        <v>35410</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61943</v>
+        <v>61783</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1386307988577924</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1004651535985956</v>
+        <v>0.1039940938631037</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1819203760504859</v>
+        <v>0.1814513176916396</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>160</v>
@@ -1208,19 +1208,19 @@
         <v>170014</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>148365</v>
+        <v>144602</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>196229</v>
+        <v>193214</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1897409664388266</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1655795830378068</v>
+        <v>0.1613804993298113</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2189977909538893</v>
+        <v>0.2156326864222616</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>117847</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99122</v>
+        <v>99620</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>137969</v>
+        <v>138905</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2121324312011894</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1784257708356519</v>
+        <v>0.1793213419009699</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.24835185243324</v>
+        <v>0.250037476052805</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -1258,19 +1258,19 @@
         <v>12380</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6901</v>
+        <v>7009</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20135</v>
+        <v>21170</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03635736945135851</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02026816918579558</v>
+        <v>0.02058534000605038</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05913329156592372</v>
+        <v>0.06217256935229767</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>121</v>
@@ -1279,19 +1279,19 @@
         <v>130227</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>108857</v>
+        <v>109686</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>152475</v>
+        <v>153989</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1453371764684204</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1214876655440411</v>
+        <v>0.122412493066474</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1701666749030779</v>
+        <v>0.171856867451024</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>34485</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24528</v>
+        <v>24036</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47563</v>
+        <v>47598</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06207512292585023</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04415190400241926</v>
+        <v>0.04326553283866501</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08561653498469153</v>
+        <v>0.08567844613384742</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1329,19 +1329,19 @@
         <v>2850</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7767</v>
+        <v>8386</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008369257837383424</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002506951263027783</v>
+        <v>0.002483439085290221</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02280964639324871</v>
+        <v>0.02462763545950759</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -1350,19 +1350,19 @@
         <v>37335</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>26754</v>
+        <v>26882</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>49655</v>
+        <v>50463</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04166667076251986</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02985821745489718</v>
+        <v>0.03000154547752261</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05541612097537264</v>
+        <v>0.05631811514476597</v>
       </c>
     </row>
     <row r="13">
@@ -1454,19 +1454,19 @@
         <v>273018</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>249860</v>
+        <v>248065</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>297691</v>
+        <v>297604</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4817420964439754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4408785948411791</v>
+        <v>0.4377125095239922</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5252769723081937</v>
+        <v>0.5251235596302726</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>216</v>
@@ -1475,19 +1475,19 @@
         <v>230366</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>214180</v>
+        <v>215154</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>244926</v>
+        <v>245317</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7589625308900395</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7056370091831847</v>
+        <v>0.7088473035567401</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8069339144102061</v>
+        <v>0.8082199949072087</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>481</v>
@@ -1496,19 +1496,19 @@
         <v>503384</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>471325</v>
+        <v>475293</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>529898</v>
+        <v>531078</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5784306083259072</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5415914782803372</v>
+        <v>0.5461510298611356</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6088967361906972</v>
+        <v>0.6102533440402188</v>
       </c>
     </row>
     <row r="15">
@@ -1525,19 +1525,19 @@
         <v>136100</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>116109</v>
+        <v>115787</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>157538</v>
+        <v>157342</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2401484484732594</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2048753220146116</v>
+        <v>0.2043062263041627</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2779772102175349</v>
+        <v>0.2776310169429774</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>45</v>
@@ -1546,19 +1546,19 @@
         <v>46833</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>35542</v>
+        <v>35283</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>61560</v>
+        <v>60087</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1542974095956383</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1170967456565975</v>
+        <v>0.1162432242588372</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2028143665209362</v>
+        <v>0.1979642547834569</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>175</v>
@@ -1567,19 +1567,19 @@
         <v>182933</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>161728</v>
+        <v>159251</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>209266</v>
+        <v>210076</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.210205456683417</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1858393724680211</v>
+        <v>0.182992352794586</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.240464521127767</v>
+        <v>0.241394668714943</v>
       </c>
     </row>
     <row r="16">
@@ -1596,19 +1596,19 @@
         <v>125902</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>106310</v>
+        <v>105891</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>147295</v>
+        <v>146339</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2221542441260048</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1875840679838267</v>
+        <v>0.1868443917100003</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2599020573551487</v>
+        <v>0.2582167486626399</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1617,19 +1617,19 @@
         <v>12244</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6967</v>
+        <v>7109</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21023</v>
+        <v>20781</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04033786435455882</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02295474896136773</v>
+        <v>0.02342059751020918</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06926256710768419</v>
+        <v>0.06846596011283036</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>134</v>
@@ -1638,19 +1638,19 @@
         <v>138145</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>118449</v>
+        <v>117370</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>161690</v>
+        <v>162900</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1587406100229188</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1361072945688717</v>
+        <v>0.1348683545380261</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1857955779415543</v>
+        <v>0.187185706252623</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>31712</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23116</v>
+        <v>22831</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44248</v>
+        <v>44444</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05595521095676031</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04078827712499714</v>
+        <v>0.04028468367732033</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07807556756122104</v>
+        <v>0.07842117557303312</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -1688,19 +1688,19 @@
         <v>14084</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7922</v>
+        <v>8155</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23658</v>
+        <v>23862</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0464021951597634</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02609858610512943</v>
+        <v>0.02686890065308017</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07794519288970746</v>
+        <v>0.07861432502995268</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -1709,19 +1709,19 @@
         <v>45796</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34502</v>
+        <v>33654</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>60466</v>
+        <v>61120</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05262332496775712</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03964532903384859</v>
+        <v>0.03867163016743994</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06948023032069051</v>
+        <v>0.0702314037456544</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>224870</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>201499</v>
+        <v>204916</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>245405</v>
+        <v>248184</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5142705014016866</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.46082262558138</v>
+        <v>0.4686354530545513</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.561234010442508</v>
+        <v>0.5675881079988568</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>121</v>
@@ -1834,19 +1834,19 @@
         <v>127640</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>115486</v>
+        <v>115625</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>138410</v>
+        <v>138934</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7520050987375491</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6803992408551799</v>
+        <v>0.6812156692694523</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8154557539533557</v>
+        <v>0.8185417362991003</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>330</v>
@@ -1855,19 +1855,19 @@
         <v>352510</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>327809</v>
+        <v>326535</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>375061</v>
+        <v>377520</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5807481667445981</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5400541552608737</v>
+        <v>0.5379545230411992</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6178993311526118</v>
+        <v>0.6219512316742783</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>90579</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>73382</v>
+        <v>73035</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>108240</v>
+        <v>109063</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2071512989003805</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.167822793880307</v>
+        <v>0.1670297049138927</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2475418116685631</v>
+        <v>0.2494240100619907</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -1905,19 +1905,19 @@
         <v>32103</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22058</v>
+        <v>22534</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42779</v>
+        <v>44366</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1891398951265345</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1299541356769718</v>
+        <v>0.1327630496468379</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.252035266407281</v>
+        <v>0.2613865386151747</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>115</v>
@@ -1926,19 +1926,19 @@
         <v>122682</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>102916</v>
+        <v>102443</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>145306</v>
+        <v>142855</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2021147746172018</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1695504493326169</v>
+        <v>0.1687719427735357</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2393863736423157</v>
+        <v>0.2353492981495944</v>
       </c>
     </row>
     <row r="21">
@@ -1955,19 +1955,19 @@
         <v>96122</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>79708</v>
+        <v>78117</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>113989</v>
+        <v>113860</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2198270472664282</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.182288630738816</v>
+        <v>0.178651013492715</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.260688443901141</v>
+        <v>0.2603952221805106</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1976,19 +1976,19 @@
         <v>5753</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2117</v>
+        <v>2060</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12671</v>
+        <v>13581</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03389535978798641</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01247269535057236</v>
+        <v>0.01213680081101215</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07465197416464141</v>
+        <v>0.08001493893387787</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>94</v>
@@ -1997,19 +1997,19 @@
         <v>101875</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>82721</v>
+        <v>83620</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>122030</v>
+        <v>121294</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1678350165088163</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1362795949504241</v>
+        <v>0.1377611250290428</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2010400776422808</v>
+        <v>0.1998268613874845</v>
       </c>
     </row>
     <row r="22">
@@ -2026,19 +2026,19 @@
         <v>25690</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16376</v>
+        <v>16832</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37283</v>
+        <v>36866</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05875115243150469</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03745173803079277</v>
+        <v>0.03849457270584074</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08526518439494669</v>
+        <v>0.08431062391592919</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2047,19 +2047,19 @@
         <v>4236</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1137</v>
+        <v>1112</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10081</v>
+        <v>10714</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02495964634793007</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006696719807604789</v>
+        <v>0.006553884978486436</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.059393971939186</v>
+        <v>0.0631199202809984</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -2068,19 +2068,19 @@
         <v>29926</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19821</v>
+        <v>19965</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42086</v>
+        <v>41312</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04930204212938392</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03265385741396584</v>
+        <v>0.03289164122574969</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06933603167398807</v>
+        <v>0.06806074938646411</v>
       </c>
     </row>
     <row r="23">
@@ -2172,19 +2172,19 @@
         <v>78416</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>66266</v>
+        <v>65506</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>91337</v>
+        <v>92238</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4799971026970689</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4056233429083597</v>
+        <v>0.4009736376066374</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5590860115201962</v>
+        <v>0.5646004686917407</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -2193,19 +2193,19 @@
         <v>47319</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39672</v>
+        <v>38967</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>53578</v>
+        <v>53611</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7360952531069005</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6171311107920424</v>
+        <v>0.6061658565379165</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.833453732648203</v>
+        <v>0.8339653047647042</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>125</v>
@@ -2214,19 +2214,19 @@
         <v>125735</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>110354</v>
+        <v>111042</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>140045</v>
+        <v>140118</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5523136609232925</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4847522181551873</v>
+        <v>0.4877738402744574</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6151739369751998</v>
+        <v>0.6154955017325411</v>
       </c>
     </row>
     <row r="25">
@@ -2243,19 +2243,19 @@
         <v>41263</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30665</v>
+        <v>30727</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52450</v>
+        <v>52676</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2525799138066949</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1877080361906665</v>
+        <v>0.1880866987271272</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3210560959164789</v>
+        <v>0.3224366336972815</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -2264,19 +2264,19 @@
         <v>11766</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6493</v>
+        <v>6788</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18736</v>
+        <v>19132</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1830340471452207</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1010099381303204</v>
+        <v>0.1055994590594546</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2914551298601558</v>
+        <v>0.2976166830075891</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>53</v>
@@ -2285,19 +2285,19 @@
         <v>53029</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41754</v>
+        <v>40909</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>66855</v>
+        <v>67114</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2329416707824118</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1834106626597142</v>
+        <v>0.1797006900564392</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.293672428560365</v>
+        <v>0.2948123513096524</v>
       </c>
     </row>
     <row r="26">
@@ -2314,19 +2314,19 @@
         <v>31875</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>22765</v>
+        <v>22012</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43337</v>
+        <v>42959</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1951125970803796</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1393493221300849</v>
+        <v>0.1347386665725396</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2652718402786853</v>
+        <v>0.2629606367964378</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2335,19 +2335,19 @@
         <v>5199</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1266</v>
+        <v>1974</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10994</v>
+        <v>11261</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08087069974787889</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01969639094098211</v>
+        <v>0.03070403531277652</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1710297638914698</v>
+        <v>0.1751767263806131</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>37</v>
@@ -2356,19 +2356,19 @@
         <v>37074</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>26947</v>
+        <v>27085</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>49976</v>
+        <v>49385</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1628531652684001</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1183697770112144</v>
+        <v>0.1189747670034688</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2195288156344775</v>
+        <v>0.2169334562734946</v>
       </c>
     </row>
     <row r="27">
@@ -2385,19 +2385,19 @@
         <v>11813</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6498</v>
+        <v>6484</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>19889</v>
+        <v>19133</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07231038641585666</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0397767255373641</v>
+        <v>0.03968745260197703</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1217456628368573</v>
+        <v>0.117116236554329</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -2419,19 +2419,19 @@
         <v>11813</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6434</v>
+        <v>6452</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>19489</v>
+        <v>19954</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05189150302589574</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02826446366729642</v>
+        <v>0.02834141222887114</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08560703291222012</v>
+        <v>0.08765158572365606</v>
       </c>
     </row>
     <row r="28">
@@ -2523,19 +2523,19 @@
         <v>932843</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>889208</v>
+        <v>883282</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>977765</v>
+        <v>974814</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4911081790632111</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4681357686831525</v>
+        <v>0.4650157170662292</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5147579692474554</v>
+        <v>0.513204314181873</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>762</v>
@@ -2544,19 +2544,19 @@
         <v>799364</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>771157</v>
+        <v>769916</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>825017</v>
+        <v>823446</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7854488059337985</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7577334577864778</v>
+        <v>0.756514086540484</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8106558293269777</v>
+        <v>0.8091120257026916</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1657</v>
@@ -2565,19 +2565,19 @@
         <v>1732207</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1680330</v>
+        <v>1672835</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1784149</v>
+        <v>1783134</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5937946967198448</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5760113312208921</v>
+        <v>0.5734421284355243</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6116001393411359</v>
+        <v>0.6112523291790251</v>
       </c>
     </row>
     <row r="30">
@@ -2594,19 +2594,19 @@
         <v>435043</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>399933</v>
+        <v>398729</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>473067</v>
+        <v>478976</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2290342649799665</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2105503837745979</v>
+        <v>0.209916335799756</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2490527839354465</v>
+        <v>0.2521635925410742</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>152</v>
@@ -2615,19 +2615,19 @@
         <v>157903</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>133635</v>
+        <v>134449</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>183962</v>
+        <v>182383</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1551543569548289</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1313084475124416</v>
+        <v>0.1321087841404064</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1807600870639927</v>
+        <v>0.1792082029449186</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>564</v>
@@ -2636,19 +2636,19 @@
         <v>592946</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>550569</v>
+        <v>545923</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>640201</v>
+        <v>638867</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2032598057741386</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1887330968818722</v>
+        <v>0.1871406353350268</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2194588383646321</v>
+        <v>0.2190015353558752</v>
       </c>
     </row>
     <row r="31">
@@ -2665,19 +2665,19 @@
         <v>407384</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>371359</v>
+        <v>370745</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>445120</v>
+        <v>445387</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2144729940590268</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1955068915471364</v>
+        <v>0.1951839010354238</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2343394344101034</v>
+        <v>0.2344800725090282</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>38</v>
@@ -2686,19 +2686,19 @@
         <v>39279</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>28963</v>
+        <v>28512</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>53892</v>
+        <v>53120</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03859485004390292</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02845903690042401</v>
+        <v>0.02801530362009131</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05295340085746189</v>
+        <v>0.05219542584763644</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>426</v>
@@ -2707,19 +2707,19 @@
         <v>446663</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>411104</v>
+        <v>406088</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>487810</v>
+        <v>489775</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.153114443821361</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1409251956178908</v>
+        <v>0.1392057322600731</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1672197519521752</v>
+        <v>0.1678930880290611</v>
       </c>
     </row>
     <row r="32">
@@ -2736,19 +2736,19 @@
         <v>124196</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>103077</v>
+        <v>103000</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>148312</v>
+        <v>145928</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06538456189779561</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05426622588797394</v>
+        <v>0.05422568825220062</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07808073310035794</v>
+        <v>0.07682569298015275</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>21</v>
@@ -2757,19 +2757,19 @@
         <v>21171</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>12994</v>
+        <v>12928</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>32069</v>
+        <v>30594</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02080198706746964</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01276745341079473</v>
+        <v>0.01270274789301242</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03151107326533203</v>
+        <v>0.03006171051962376</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>144</v>
@@ -2778,19 +2778,19 @@
         <v>145366</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>123408</v>
+        <v>122699</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>170018</v>
+        <v>168814</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0498310536846556</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04230385146927557</v>
+        <v>0.04206063418448738</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05828147944218728</v>
+        <v>0.05786894510892693</v>
       </c>
     </row>
     <row r="33">
@@ -3123,19 +3123,19 @@
         <v>22261</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14700</v>
+        <v>15156</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32962</v>
+        <v>32188</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2718766901229156</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1795316083091716</v>
+        <v>0.1851053216651881</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4025635013766961</v>
+        <v>0.3931171721816507</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -3144,19 +3144,19 @@
         <v>46296</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36833</v>
+        <v>37168</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55659</v>
+        <v>56077</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5272812288772426</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4195071808776668</v>
+        <v>0.4233159795081141</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6339277612161447</v>
+        <v>0.6386802181756969</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -3165,19 +3165,19 @@
         <v>68557</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56593</v>
+        <v>55286</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80963</v>
+        <v>82761</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4040347859321964</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3335255646175002</v>
+        <v>0.3258202930879825</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4771496437047729</v>
+        <v>0.4877472048249381</v>
       </c>
     </row>
     <row r="5">
@@ -3194,19 +3194,19 @@
         <v>24683</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16698</v>
+        <v>17103</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34326</v>
+        <v>33524</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3014585897499784</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2039347857421122</v>
+        <v>0.2088771949239855</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4192236256091444</v>
+        <v>0.4094316648382366</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -3215,19 +3215,19 @@
         <v>26480</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18814</v>
+        <v>18755</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35462</v>
+        <v>35445</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3015890508064987</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2142802484857978</v>
+        <v>0.2136111403837528</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4038911379505428</v>
+        <v>0.4036992475342306</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -3236,19 +3236,19 @@
         <v>51163</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40374</v>
+        <v>40544</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>63638</v>
+        <v>63709</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3015260963216747</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.237938523776046</v>
+        <v>0.238942115650037</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3750465258445561</v>
+        <v>0.3754645572371186</v>
       </c>
     </row>
     <row r="6">
@@ -3265,19 +3265,19 @@
         <v>25441</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17497</v>
+        <v>16604</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34998</v>
+        <v>33752</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3107133768079551</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.213695640711709</v>
+        <v>0.2027818117247095</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4274262855891716</v>
+        <v>0.412210773400677</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -3286,19 +3286,19 @@
         <v>6792</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2820</v>
+        <v>2878</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12725</v>
+        <v>13660</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07735691476284139</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03211901414497331</v>
+        <v>0.03277341381608434</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1449261645086966</v>
+        <v>0.1555810696942559</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>30</v>
@@ -3307,19 +3307,19 @@
         <v>32233</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22799</v>
+        <v>21986</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>44909</v>
+        <v>43328</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1899639734532332</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1343630234763962</v>
+        <v>0.1295724048911662</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2646687500242481</v>
+        <v>0.2553489680082178</v>
       </c>
     </row>
     <row r="7">
@@ -3336,19 +3336,19 @@
         <v>9494</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4520</v>
+        <v>4629</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17211</v>
+        <v>16749</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1159513433191509</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05519939407778583</v>
+        <v>0.05653619030011409</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2101955156527615</v>
+        <v>0.2045554212817961</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -3357,19 +3357,19 @@
         <v>8233</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4026</v>
+        <v>4061</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16133</v>
+        <v>14836</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0937728055534173</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04585351385637145</v>
+        <v>0.04625779719232289</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1837460683083963</v>
+        <v>0.1689757482018675</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -3378,19 +3378,19 @@
         <v>17727</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10372</v>
+        <v>10512</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27239</v>
+        <v>27510</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1044751442928956</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06112901033323762</v>
+        <v>0.06195038322755918</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1605286022189389</v>
+        <v>0.1621251677136252</v>
       </c>
     </row>
     <row r="8">
@@ -3482,19 +3482,19 @@
         <v>144589</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>126802</v>
+        <v>126007</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>163384</v>
+        <v>165451</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3786355965562067</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3320555023884751</v>
+        <v>0.3299731474912924</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4278547233980229</v>
+        <v>0.4332659748078433</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>145</v>
@@ -3503,19 +3503,19 @@
         <v>158399</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>140853</v>
+        <v>141600</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>175353</v>
+        <v>176039</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5714410492324071</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5081413449232091</v>
+        <v>0.5108380902837798</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6326036897847721</v>
+        <v>0.6350779951608727</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>277</v>
@@ -3524,19 +3524,19 @@
         <v>302988</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>275088</v>
+        <v>277112</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>327926</v>
+        <v>329263</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4597269316495947</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4173942087805151</v>
+        <v>0.4204649383456279</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4975660528909998</v>
+        <v>0.499594117533723</v>
       </c>
     </row>
     <row r="10">
@@ -3553,19 +3553,19 @@
         <v>112067</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>94571</v>
+        <v>94340</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>129646</v>
+        <v>129152</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2934693770533586</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.247653374961967</v>
+        <v>0.2470488263255126</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3395030318671772</v>
+        <v>0.3382098760194262</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -3574,19 +3574,19 @@
         <v>76733</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62013</v>
+        <v>62726</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93886</v>
+        <v>92508</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2768229746410126</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2237190182607234</v>
+        <v>0.2262895451674096</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3387023845411455</v>
+        <v>0.3337315337352041</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>187</v>
@@ -3595,19 +3595,19 @@
         <v>188800</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>165665</v>
+        <v>164797</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>210817</v>
+        <v>213523</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2864681279839875</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2513648839828502</v>
+        <v>0.250047987409492</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3198745069304075</v>
+        <v>0.3239812480436753</v>
       </c>
     </row>
     <row r="11">
@@ -3624,19 +3624,19 @@
         <v>78095</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>64240</v>
+        <v>63243</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95994</v>
+        <v>95485</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2045080584148235</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1682251961017732</v>
+        <v>0.1656147556116262</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2513788017660268</v>
+        <v>0.2500466257748576</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -3645,19 +3645,19 @@
         <v>32081</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22097</v>
+        <v>22679</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44089</v>
+        <v>45161</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1157363479434112</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07971710570932304</v>
+        <v>0.08181742604033795</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.159054221189245</v>
+        <v>0.1629226032878824</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>109</v>
@@ -3666,19 +3666,19 @@
         <v>110176</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>91945</v>
+        <v>92922</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>130316</v>
+        <v>131330</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.167171891720721</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.139509185608749</v>
+        <v>0.1409914601746921</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1977292129484135</v>
+        <v>0.1992682733086791</v>
       </c>
     </row>
     <row r="12">
@@ -3695,19 +3695,19 @@
         <v>47118</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34005</v>
+        <v>34418</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60390</v>
+        <v>61763</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1233869679756112</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08904900307766446</v>
+        <v>0.09013130002119282</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1581429176798001</v>
+        <v>0.1617393331331128</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -3716,19 +3716,19 @@
         <v>9979</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4989</v>
+        <v>4613</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19436</v>
+        <v>18412</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03599962818316909</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01799981651277</v>
+        <v>0.01664230344778517</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07011847917009839</v>
+        <v>0.06642218586382562</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>52</v>
@@ -3737,19 +3737,19 @@
         <v>57096</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42779</v>
+        <v>43019</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>73112</v>
+        <v>72918</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08663304864569692</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06490926732131258</v>
+        <v>0.06527248544543011</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1109341620977289</v>
+        <v>0.1106395510427041</v>
       </c>
     </row>
     <row r="13">
@@ -3841,19 +3841,19 @@
         <v>153681</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>133436</v>
+        <v>136142</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>175935</v>
+        <v>176457</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3629519013064396</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3151370498077169</v>
+        <v>0.3215292410949123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4155092520919803</v>
+        <v>0.4167405100884894</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>140</v>
@@ -3862,19 +3862,19 @@
         <v>147352</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>130551</v>
+        <v>130752</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>164405</v>
+        <v>163814</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5155454035690364</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4567628993601144</v>
+        <v>0.457464747332217</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5752104480833432</v>
+        <v>0.5731402009005738</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>286</v>
@@ -3883,19 +3883,19 @@
         <v>301034</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>274553</v>
+        <v>272947</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>331120</v>
+        <v>328069</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.424445983175163</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3871098960115011</v>
+        <v>0.3848444483991011</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4668667367130947</v>
+        <v>0.4625641692449309</v>
       </c>
     </row>
     <row r="15">
@@ -3912,19 +3912,19 @@
         <v>133144</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>114866</v>
+        <v>113067</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>153786</v>
+        <v>153108</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3144489351799928</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2712813384360656</v>
+        <v>0.2670313096128335</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3631989079803789</v>
+        <v>0.3615968534959471</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>86</v>
@@ -3933,19 +3933,19 @@
         <v>89001</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>75245</v>
+        <v>74758</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>106318</v>
+        <v>105143</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3113918478311633</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2632622967835078</v>
+        <v>0.2615597308765249</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3719791572406217</v>
+        <v>0.3678654185063431</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>214</v>
@@ -3954,19 +3954,19 @@
         <v>222146</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>196665</v>
+        <v>194682</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>249373</v>
+        <v>246965</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3132169510068709</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2772903879013456</v>
+        <v>0.2744940912103294</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3516060622692199</v>
+        <v>0.3482105599978914</v>
       </c>
     </row>
     <row r="16">
@@ -3983,19 +3983,19 @@
         <v>85158</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69198</v>
+        <v>70331</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103500</v>
+        <v>104093</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2011179559356203</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.163425693889125</v>
+        <v>0.1661023257653619</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2444369664217606</v>
+        <v>0.2458379582794751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -4004,19 +4004,19 @@
         <v>33194</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23989</v>
+        <v>22724</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45478</v>
+        <v>44452</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.116136928461312</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08393087552378692</v>
+        <v>0.07950482236273342</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1591169898880043</v>
+        <v>0.1555271458428748</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>115</v>
@@ -4025,19 +4025,19 @@
         <v>118352</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>100244</v>
+        <v>100878</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141156</v>
+        <v>140617</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1668712142113216</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1413407690051544</v>
+        <v>0.1422346876016697</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1990240072568076</v>
+        <v>0.1982644711352092</v>
       </c>
     </row>
     <row r="17">
@@ -4054,19 +4054,19 @@
         <v>51438</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39813</v>
+        <v>39173</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>66818</v>
+        <v>65278</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1214812075779472</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09402807163442486</v>
+        <v>0.09251548288386104</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1578053840567888</v>
+        <v>0.1541688108372943</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -4075,19 +4075,19 @@
         <v>16270</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8419</v>
+        <v>9053</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25608</v>
+        <v>25057</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05692582013848827</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0294557865299802</v>
+        <v>0.03167396858630668</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08959460383488087</v>
+        <v>0.08766605710432539</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>66</v>
@@ -4096,19 +4096,19 @@
         <v>67708</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>52652</v>
+        <v>52734</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>84960</v>
+        <v>83438</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09546585160664448</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07423748891677916</v>
+        <v>0.07435303592052711</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1197910663263895</v>
+        <v>0.1176448313784002</v>
       </c>
     </row>
     <row r="18">
@@ -4200,19 +4200,19 @@
         <v>130473</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>112385</v>
+        <v>111470</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>151821</v>
+        <v>150242</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.357205306302273</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3076836348317259</v>
+        <v>0.3051803307223379</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4156508141311249</v>
+        <v>0.4113275855177235</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>112</v>
@@ -4221,19 +4221,19 @@
         <v>131856</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>116034</v>
+        <v>115838</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>148007</v>
+        <v>148580</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5851445050851951</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5149264088948041</v>
+        <v>0.5140568071110294</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6568175357477593</v>
+        <v>0.6593608417295413</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>228</v>
@@ -4242,19 +4242,19 @@
         <v>262330</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>236831</v>
+        <v>235687</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>288139</v>
+        <v>288016</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4441741469876879</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4009998966075521</v>
+        <v>0.3990633482243331</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4878739720187842</v>
+        <v>0.4876666709265071</v>
       </c>
     </row>
     <row r="20">
@@ -4271,19 +4271,19 @@
         <v>110305</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>90116</v>
+        <v>92519</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>127971</v>
+        <v>129277</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3019907055707621</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2467167250438229</v>
+        <v>0.2532949732201894</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3503551632241483</v>
+        <v>0.3539304324852279</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>53</v>
@@ -4292,19 +4292,19 @@
         <v>62350</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47908</v>
+        <v>48132</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>77674</v>
+        <v>78625</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2766930939927923</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2126023701833119</v>
+        <v>0.2135959804200284</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3446983114510675</v>
+        <v>0.3489189969797736</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>148</v>
@@ -4313,19 +4313,19 @@
         <v>172655</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>149370</v>
+        <v>149596</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>197326</v>
+        <v>198793</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2923385528791961</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.252911710014536</v>
+        <v>0.2532945497924027</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3341110232651463</v>
+        <v>0.3365951610152973</v>
       </c>
     </row>
     <row r="21">
@@ -4342,19 +4342,19 @@
         <v>80250</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>63843</v>
+        <v>63754</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>98404</v>
+        <v>96658</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2197051105193386</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1747876974134189</v>
+        <v>0.1745443055024186</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2694065630715818</v>
+        <v>0.2646273689235566</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>23</v>
@@ -4363,19 +4363,19 @@
         <v>25749</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17118</v>
+        <v>16491</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38199</v>
+        <v>36497</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1142679478289534</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07596504377921187</v>
+        <v>0.07318198189123479</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1695187462751446</v>
+        <v>0.1619653772791396</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>98</v>
@@ -4384,19 +4384,19 @@
         <v>105999</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>88396</v>
+        <v>88786</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>127705</v>
+        <v>126803</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1794761904682723</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1496708276996931</v>
+        <v>0.1503317143802214</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2162296734644658</v>
+        <v>0.2147012068914637</v>
       </c>
     </row>
     <row r="22">
@@ -4413,19 +4413,19 @@
         <v>44233</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32673</v>
+        <v>31438</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>61303</v>
+        <v>59049</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1210988776076262</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08945029740712772</v>
+        <v>0.08606928448718468</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1678322248335513</v>
+        <v>0.1616615837228136</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -4434,19 +4434,19 @@
         <v>5384</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2086</v>
+        <v>2071</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11636</v>
+        <v>12021</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02389445309305918</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009257803079260439</v>
+        <v>0.009188857682207828</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05163610487226764</v>
+        <v>0.05334458246148358</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>44</v>
@@ -4455,19 +4455,19 @@
         <v>49617</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36145</v>
+        <v>36240</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64126</v>
+        <v>66416</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08401110966484361</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06119985410729004</v>
+        <v>0.06136144228869797</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1085781288274179</v>
+        <v>0.1124548771084263</v>
       </c>
     </row>
     <row r="23">
@@ -4559,19 +4559,19 @@
         <v>59029</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>46258</v>
+        <v>47835</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>72520</v>
+        <v>72740</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3751428965198843</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2939809105358435</v>
+        <v>0.3040040057069123</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4608834515833739</v>
+        <v>0.4622799935593197</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>26</v>
@@ -4580,19 +4580,19 @@
         <v>27371</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>19357</v>
+        <v>19959</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>35827</v>
+        <v>37186</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3988078784183759</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2820470802549728</v>
+        <v>0.2908173913722106</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5220179858938577</v>
+        <v>0.5418267221776284</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>81</v>
@@ -4601,19 +4601,19 @@
         <v>86400</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>71685</v>
+        <v>72552</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>101746</v>
+        <v>102870</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3823300156867349</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3172147320714741</v>
+        <v>0.3210522699451705</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4502384294979691</v>
+        <v>0.455213608908659</v>
       </c>
     </row>
     <row r="25">
@@ -4630,19 +4630,19 @@
         <v>42411</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30914</v>
+        <v>32557</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54031</v>
+        <v>56020</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2695338977329111</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1964624284580847</v>
+        <v>0.2069068124468932</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3433773595365286</v>
+        <v>0.3560166341443941</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -4651,19 +4651,19 @@
         <v>25601</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17403</v>
+        <v>17738</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34021</v>
+        <v>34629</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3730272465768147</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2535670836599578</v>
+        <v>0.2584583892071191</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4957029178963311</v>
+        <v>0.5045739538186018</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>61</v>
@@ -4672,19 +4672,19 @@
         <v>68013</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54222</v>
+        <v>53152</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>82927</v>
+        <v>82713</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3009651083845022</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2399375833603094</v>
+        <v>0.2352045389266338</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3669630627986146</v>
+        <v>0.3660173842714987</v>
       </c>
     </row>
     <row r="26">
@@ -4701,19 +4701,19 @@
         <v>43108</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32638</v>
+        <v>31882</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>56007</v>
+        <v>54836</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2739583254962978</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2074195162617764</v>
+        <v>0.2026195856699806</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3559396941269796</v>
+        <v>0.3484926800517034</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -4722,19 +4722,19 @@
         <v>8383</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4097</v>
+        <v>4060</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15039</v>
+        <v>15328</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1221515779612443</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05970189162905121</v>
+        <v>0.05915848796434386</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2191256242284432</v>
+        <v>0.2233320687746435</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>49</v>
@@ -4743,19 +4743,19 @@
         <v>51491</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>40408</v>
+        <v>39420</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>65427</v>
+        <v>65795</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2278542046672012</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1788090250541447</v>
+        <v>0.1744394917996499</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2895216048642235</v>
+        <v>0.291151098369282</v>
       </c>
     </row>
     <row r="27">
@@ -4772,19 +4772,19 @@
         <v>12803</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6479</v>
+        <v>6510</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>21106</v>
+        <v>20929</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.08136488025090682</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04117529297082356</v>
+        <v>0.04137277975875341</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1341341137518967</v>
+        <v>0.1330071810499747</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -4793,19 +4793,19 @@
         <v>7276</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2935</v>
+        <v>2193</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>13855</v>
+        <v>14699</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.106013297043565</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04277117160643661</v>
+        <v>0.03195014082625246</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2018800033826116</v>
+        <v>0.2141711532243275</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>18</v>
@@ -4814,19 +4814,19 @@
         <v>20079</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>12802</v>
+        <v>12161</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>31759</v>
+        <v>31659</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.08885067126156161</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05664991953512512</v>
+        <v>0.05381557040554685</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1405388415647207</v>
+        <v>0.1400935124027443</v>
       </c>
     </row>
     <row r="28">
@@ -4918,19 +4918,19 @@
         <v>510034</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>474990</v>
+        <v>472170</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>552423</v>
+        <v>548610</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3617822983698981</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3369243874761784</v>
+        <v>0.3349238146320892</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.391850239626128</v>
+        <v>0.3891452306223581</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>468</v>
@@ -4939,19 +4939,19 @@
         <v>511274</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>477641</v>
+        <v>480256</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>544087</v>
+        <v>542976</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5411553852190817</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5055563721930764</v>
+        <v>0.5083239632860884</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5758852979706403</v>
+        <v>0.5747097191196137</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>938</v>
@@ -4960,19 +4960,19 @@
         <v>1021308</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>969701</v>
+        <v>976011</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1074909</v>
+        <v>1074938</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4337568027007391</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4118389440842612</v>
+        <v>0.4145186821185051</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4565215282962453</v>
+        <v>0.4565337661361022</v>
       </c>
     </row>
     <row r="30">
@@ -4989,19 +4989,19 @@
         <v>422611</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>384589</v>
+        <v>386819</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>455467</v>
+        <v>456287</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2997707597191967</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2728002103554586</v>
+        <v>0.2743820747265497</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3230760885925671</v>
+        <v>0.323658080007605</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>261</v>
@@ -5010,19 +5010,19 @@
         <v>280166</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>252630</v>
+        <v>248544</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>310681</v>
+        <v>307348</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2965399510937738</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2673948379938029</v>
+        <v>0.2630695757241666</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3288383461414632</v>
+        <v>0.3253106702090587</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>660</v>
@@ -5031,19 +5031,19 @@
         <v>702777</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>654054</v>
+        <v>655081</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>751608</v>
+        <v>748802</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2984743787877689</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2777813142146201</v>
+        <v>0.2782174331727061</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3192130493643262</v>
+        <v>0.3180214286821</v>
       </c>
     </row>
     <row r="31">
@@ -5060,19 +5060,19 @@
         <v>312051</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>281707</v>
+        <v>281217</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>346264</v>
+        <v>345171</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2213472821162543</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1998230549181995</v>
+        <v>0.1994753415767997</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2456150540910238</v>
+        <v>0.2448401257567873</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>100</v>
@@ -5081,19 +5081,19 @@
         <v>106200</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>88584</v>
+        <v>87239</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>127487</v>
+        <v>124792</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1124066350099222</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09376109102393444</v>
+        <v>0.09233802267837554</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1349383817380477</v>
+        <v>0.132084980066917</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>401</v>
@@ -5102,19 +5102,19 @@
         <v>418251</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>382917</v>
+        <v>383544</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>454443</v>
+        <v>455763</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1776342077933935</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1626273658721654</v>
+        <v>0.1628937690726787</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1930051082225177</v>
+        <v>0.1935656693411208</v>
       </c>
     </row>
     <row r="32">
@@ -5131,19 +5131,19 @@
         <v>165085</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>141703</v>
+        <v>139897</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>190275</v>
+        <v>189854</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1170996597946509</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1005137696213158</v>
+        <v>0.09923289041603606</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1349677486015581</v>
+        <v>0.1346690148114093</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>43</v>
@@ -5152,19 +5152,19 @@
         <v>47143</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>35151</v>
+        <v>34988</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62685</v>
+        <v>64259</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04989802867722238</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0372051950439301</v>
+        <v>0.03703305947981651</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06634855794108845</v>
+        <v>0.06801460201838708</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>197</v>
@@ -5173,19 +5173,19 @@
         <v>212228</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>186078</v>
+        <v>182908</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>243736</v>
+        <v>240945</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09013461071809845</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07902859903019639</v>
+        <v>0.07768238623604969</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1035165682516743</v>
+        <v>0.102331135465485</v>
       </c>
     </row>
     <row r="33">
@@ -5518,19 +5518,19 @@
         <v>22465</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15790</v>
+        <v>15488</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31446</v>
+        <v>31778</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2874466401422091</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2020350783254541</v>
+        <v>0.1981791072321889</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4023657274149724</v>
+        <v>0.4066123063076647</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -5539,19 +5539,19 @@
         <v>48118</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38012</v>
+        <v>38743</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56930</v>
+        <v>57884</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5238472374033223</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.413827283870775</v>
+        <v>0.4217817533304746</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6197855413606004</v>
+        <v>0.6301704339724225</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>71</v>
@@ -5560,19 +5560,19 @@
         <v>70583</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58211</v>
+        <v>58488</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83533</v>
+        <v>84776</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4151725265117565</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3423999061938145</v>
+        <v>0.3440273233511217</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4913462580680487</v>
+        <v>0.4986551567250777</v>
       </c>
     </row>
     <row r="5">
@@ -5589,19 +5589,19 @@
         <v>29224</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21127</v>
+        <v>21272</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37484</v>
+        <v>38538</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3739309705193146</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2703210387443846</v>
+        <v>0.2721816470265979</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.479623184357753</v>
+        <v>0.4931040935478679</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -5610,19 +5610,19 @@
         <v>22251</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14727</v>
+        <v>14694</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30958</v>
+        <v>31549</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.242235058361617</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1603280976049422</v>
+        <v>0.1599653284280512</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3370351236849803</v>
+        <v>0.3434702819209939</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>48</v>
@@ -5631,19 +5631,19 @@
         <v>51475</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39520</v>
+        <v>40050</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66590</v>
+        <v>63862</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3027764247758934</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2324566593250465</v>
+        <v>0.2355756376328032</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3916850275473802</v>
+        <v>0.3756378349149262</v>
       </c>
     </row>
     <row r="6">
@@ -5660,19 +5660,19 @@
         <v>16604</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10080</v>
+        <v>9783</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24050</v>
+        <v>24046</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2124583030998754</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1289712213321437</v>
+        <v>0.1251816061862817</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3077197383454117</v>
+        <v>0.3076746526722977</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -5681,19 +5681,19 @@
         <v>16766</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10297</v>
+        <v>10450</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24818</v>
+        <v>25515</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1825287945167688</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1121032438633351</v>
+        <v>0.1137666774247053</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2701872578202435</v>
+        <v>0.2777728996217012</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>33</v>
@@ -5702,19 +5702,19 @@
         <v>33371</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>24402</v>
+        <v>24185</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>44883</v>
+        <v>45148</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1962875613307255</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1435336792105499</v>
+        <v>0.1422571511876931</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2640010462787401</v>
+        <v>0.2655633635935112</v>
       </c>
     </row>
     <row r="7">
@@ -5731,19 +5731,19 @@
         <v>9860</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5303</v>
+        <v>5095</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17283</v>
+        <v>17793</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1261640862386009</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06785333799675333</v>
+        <v>0.06519290808817195</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2211431205927241</v>
+        <v>0.2276680589815402</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -5752,19 +5752,19 @@
         <v>4720</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1848</v>
+        <v>1867</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10514</v>
+        <v>10532</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05138890971829181</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02011955095084324</v>
+        <v>0.0203248770069729</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1144592620202185</v>
+        <v>0.1146536724299885</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -5773,19 +5773,19 @@
         <v>14581</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8031</v>
+        <v>8194</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23286</v>
+        <v>23313</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08576348738162461</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04723767889630342</v>
+        <v>0.04819520307649686</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1369709410326942</v>
+        <v>0.1371252642409811</v>
       </c>
     </row>
     <row r="8">
@@ -5877,19 +5877,19 @@
         <v>105483</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>87788</v>
+        <v>88336</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>123007</v>
+        <v>123228</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3082422773587695</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2565345056311507</v>
+        <v>0.258135847136197</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3594516817812629</v>
+        <v>0.3600968010593353</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>147</v>
@@ -5898,19 +5898,19 @@
         <v>143253</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>128632</v>
+        <v>127374</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>159791</v>
+        <v>158562</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5233650774739378</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4699464464290381</v>
+        <v>0.4653522614832013</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.583782478455096</v>
+        <v>0.5792946673536702</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>248</v>
@@ -5919,19 +5919,19 @@
         <v>248736</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>224532</v>
+        <v>224069</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>273767</v>
+        <v>270772</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4038427143471705</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3645446622256743</v>
+        <v>0.3637933488319813</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.444481765920091</v>
+        <v>0.439618732909955</v>
       </c>
     </row>
     <row r="10">
@@ -5948,19 +5948,19 @@
         <v>109782</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92565</v>
+        <v>92020</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>127002</v>
+        <v>127691</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3208038193951938</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2704923923163634</v>
+        <v>0.2689008243328578</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3711255592288298</v>
+        <v>0.3731391107328149</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -5969,19 +5969,19 @@
         <v>75704</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62174</v>
+        <v>62151</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90569</v>
+        <v>90401</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2765800334013237</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2271470882524264</v>
+        <v>0.2270650198978234</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3308872543220595</v>
+        <v>0.3302738316483914</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>188</v>
@@ -5990,19 +5990,19 @@
         <v>185486</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>163735</v>
+        <v>164194</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>209311</v>
+        <v>207917</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3011507967307802</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2658366544625119</v>
+        <v>0.2665812271205203</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.33983322022715</v>
+        <v>0.3375687610871252</v>
       </c>
     </row>
     <row r="11">
@@ -6019,19 +6019,19 @@
         <v>75066</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60086</v>
+        <v>59209</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>90671</v>
+        <v>90703</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2193585493956142</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1755832448036155</v>
+        <v>0.1730194021340351</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2649599218038237</v>
+        <v>0.2650521943251301</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -6040,19 +6040,19 @@
         <v>41910</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31210</v>
+        <v>31485</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>53943</v>
+        <v>54132</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.153114451258349</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1140242572535698</v>
+        <v>0.1150272470020204</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1970778810839339</v>
+        <v>0.1977683818952898</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>115</v>
@@ -6061,19 +6061,19 @@
         <v>116976</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>99425</v>
+        <v>98253</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>138040</v>
+        <v>137279</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1899197138726726</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1614237502170139</v>
+        <v>0.1595206381183439</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2241181374236047</v>
+        <v>0.2228831874314195</v>
       </c>
     </row>
     <row r="12">
@@ -6090,19 +6090,19 @@
         <v>51877</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39326</v>
+        <v>39487</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>67058</v>
+        <v>66367</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1515953538504226</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1149183435232974</v>
+        <v>0.1153885734980536</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1959563515574473</v>
+        <v>0.1939379658446651</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -6111,19 +6111,19 @@
         <v>12848</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7173</v>
+        <v>6725</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22246</v>
+        <v>22194</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04694043786638948</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02620693477400302</v>
+        <v>0.02457055132132323</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08127474467058472</v>
+        <v>0.0810854527075467</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>59</v>
@@ -6132,19 +6132,19 @@
         <v>64725</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>49966</v>
+        <v>49772</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>81787</v>
+        <v>80447</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1050867750493766</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08112316069258783</v>
+        <v>0.08080869180367455</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1327878225049363</v>
+        <v>0.1306125283833707</v>
       </c>
     </row>
     <row r="13">
@@ -6236,19 +6236,19 @@
         <v>198999</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>179192</v>
+        <v>178053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>219937</v>
+        <v>220281</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4379441728842917</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3943528780907281</v>
+        <v>0.3918467571601306</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4840233528893136</v>
+        <v>0.4847788109945985</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>181</v>
@@ -6257,19 +6257,19 @@
         <v>181836</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>162469</v>
+        <v>165272</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>198341</v>
+        <v>197377</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5728685310766258</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5118524412760688</v>
+        <v>0.5206826918865173</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6248650414754132</v>
+        <v>0.6218294601593701</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>368</v>
@@ -6278,19 +6278,19 @@
         <v>380835</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>355297</v>
+        <v>353049</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>409142</v>
+        <v>407779</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4934331972295798</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.460344037412837</v>
+        <v>0.4574316437838886</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5301093431766311</v>
+        <v>0.5283435649520318</v>
       </c>
     </row>
     <row r="15">
@@ -6307,19 +6307,19 @@
         <v>109767</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>90917</v>
+        <v>90561</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>129357</v>
+        <v>128662</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2415681869709153</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2000846389201938</v>
+        <v>0.1993005263970932</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2846797728131447</v>
+        <v>0.2831504733095043</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>85</v>
@@ -6328,19 +6328,19 @@
         <v>84167</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>67802</v>
+        <v>70924</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>99217</v>
+        <v>101994</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2651642083553566</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2136067227321346</v>
+        <v>0.2234423730790744</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3125786957033516</v>
+        <v>0.3213280311229462</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>189</v>
@@ -6349,19 +6349,19 @@
         <v>193934</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>171133</v>
+        <v>169352</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>217954</v>
+        <v>217465</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2512722924607985</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.221730734410254</v>
+        <v>0.2194232349738082</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2823946111165474</v>
+        <v>0.2817604655258476</v>
       </c>
     </row>
     <row r="16">
@@ -6378,19 +6378,19 @@
         <v>104159</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>87464</v>
+        <v>87487</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>123805</v>
+        <v>123968</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2292265406141261</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.192485233206234</v>
+        <v>0.1925353387518257</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2724607993805132</v>
+        <v>0.2728199262482078</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -6399,19 +6399,19 @@
         <v>34565</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24512</v>
+        <v>24179</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47864</v>
+        <v>45474</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1088941660449914</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07722281650862445</v>
+        <v>0.07617443334864463</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1507948309815313</v>
+        <v>0.1432630838373894</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>139</v>
@@ -6420,19 +6420,19 @@
         <v>138724</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>119917</v>
+        <v>119116</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>161877</v>
+        <v>161128</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1797386190004852</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1553713359230996</v>
+        <v>0.1543333625878155</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2097382498630029</v>
+        <v>0.2087677112889349</v>
       </c>
     </row>
     <row r="17">
@@ -6449,19 +6449,19 @@
         <v>41468</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30196</v>
+        <v>30878</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54389</v>
+        <v>55377</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09126109953066694</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06645406262971063</v>
+        <v>0.0679537199702811</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1196951635314988</v>
+        <v>0.1218691952718215</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -6470,19 +6470,19 @@
         <v>16846</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10191</v>
+        <v>9699</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25098</v>
+        <v>26337</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05307309452302614</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03210536307626712</v>
+        <v>0.03055567732529411</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07906971898827697</v>
+        <v>0.08297377024571471</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>56</v>
@@ -6491,19 +6491,19 @@
         <v>58315</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>45684</v>
+        <v>44184</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>74999</v>
+        <v>75166</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07555589130913648</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05919036447921459</v>
+        <v>0.0572472565287236</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09717295322071462</v>
+        <v>0.09738963746198376</v>
       </c>
     </row>
     <row r="18">
@@ -6595,19 +6595,19 @@
         <v>164290</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>143126</v>
+        <v>144421</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>184567</v>
+        <v>185038</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4519457227026917</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.393724768257168</v>
+        <v>0.3972879287481784</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.507725559032904</v>
+        <v>0.5090212871797647</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>119</v>
@@ -6616,19 +6616,19 @@
         <v>129747</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>114317</v>
+        <v>113489</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>145678</v>
+        <v>145413</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5358774542938567</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4721466981858579</v>
+        <v>0.468730040308535</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6016745532229697</v>
+        <v>0.6005793275664204</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>264</v>
@@ -6637,19 +6637,19 @@
         <v>294038</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>268860</v>
+        <v>267906</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>319323</v>
+        <v>318854</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4854997681748915</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4439277124564379</v>
+        <v>0.4423528311276289</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5272505176396775</v>
+        <v>0.5264751204381721</v>
       </c>
     </row>
     <row r="20">
@@ -6666,19 +6666,19 @@
         <v>102284</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>86295</v>
+        <v>85032</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>120312</v>
+        <v>121780</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2813713091768355</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2373880373962048</v>
+        <v>0.2339141110561048</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3309657315327247</v>
+        <v>0.3350035319358707</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -6687,19 +6687,19 @@
         <v>62735</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49509</v>
+        <v>49716</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>77313</v>
+        <v>76907</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2591051926358042</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2044790415625488</v>
+        <v>0.205334348558854</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3193138632818169</v>
+        <v>0.3176401199348781</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>150</v>
@@ -6708,19 +6708,19 @@
         <v>165018</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>143355</v>
+        <v>141418</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>187896</v>
+        <v>186695</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2724698094371863</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2366998044169893</v>
+        <v>0.2335015077090079</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.310245037735997</v>
+        <v>0.3082613073441435</v>
       </c>
     </row>
     <row r="21">
@@ -6737,19 +6737,19 @@
         <v>57052</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>44260</v>
+        <v>44570</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>72264</v>
+        <v>73024</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1569450712925152</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1217552326734046</v>
+        <v>0.1226070321745549</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1987908359585505</v>
+        <v>0.2008819573327709</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>26</v>
@@ -6758,19 +6758,19 @@
         <v>28912</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19258</v>
+        <v>19451</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>41638</v>
+        <v>41120</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1194106276644095</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07953684351550963</v>
+        <v>0.08033521368920975</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1719718461273227</v>
+        <v>0.1698308518565273</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>79</v>
@@ -6779,19 +6779,19 @@
         <v>85964</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>68994</v>
+        <v>70233</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>105045</v>
+        <v>105934</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1419396328916262</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1139187291919952</v>
+        <v>0.1159656606745713</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1734454525609649</v>
+        <v>0.1749121546634534</v>
       </c>
     </row>
     <row r="22">
@@ -6808,19 +6808,19 @@
         <v>39892</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28258</v>
+        <v>28432</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52886</v>
+        <v>53501</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1097378968279576</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07773345003222666</v>
+        <v>0.07821223624013866</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1454850544188433</v>
+        <v>0.1471765461306604</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -6829,19 +6829,19 @@
         <v>20727</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12582</v>
+        <v>13068</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30434</v>
+        <v>31153</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08560672540592959</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05196423307660736</v>
+        <v>0.05397260300373863</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1256966783663044</v>
+        <v>0.1286659696301977</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -6850,19 +6850,19 @@
         <v>60619</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47205</v>
+        <v>46242</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77095</v>
+        <v>77649</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.100090789496296</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07794227945568831</v>
+        <v>0.076351715399593</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1272954989077111</v>
+        <v>0.1282097060772088</v>
       </c>
     </row>
     <row r="23">
@@ -6954,19 +6954,19 @@
         <v>70552</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>57362</v>
+        <v>58368</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>85107</v>
+        <v>83866</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4311729212317709</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.350563403608871</v>
+        <v>0.3567095207018867</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5201217614837839</v>
+        <v>0.5125349938247448</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -6975,19 +6975,19 @@
         <v>55926</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>45697</v>
+        <v>45412</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>66701</v>
+        <v>67125</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5282056803737684</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4315962014008533</v>
+        <v>0.4289082609749016</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6299716459637429</v>
+        <v>0.6339792011644535</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>106</v>
@@ -6996,19 +6996,19 @@
         <v>126478</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>109382</v>
+        <v>109311</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>143546</v>
+        <v>143782</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4692931633903687</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4058581606997779</v>
+        <v>0.4055960649849377</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5326227278580792</v>
+        <v>0.5334968399562274</v>
       </c>
     </row>
     <row r="25">
@@ -7025,19 +7025,19 @@
         <v>42812</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31988</v>
+        <v>32176</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54681</v>
+        <v>53923</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2616381478585497</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1954918743030647</v>
+        <v>0.1966419440334847</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3341783368034623</v>
+        <v>0.3295415766230169</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -7046,19 +7046,19 @@
         <v>32810</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23596</v>
+        <v>22297</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43282</v>
+        <v>42572</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.309884968099909</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.222859867499185</v>
+        <v>0.2105857612021651</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4087879454412989</v>
+        <v>0.4020805137711518</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>68</v>
@@ -7067,19 +7067,19 @@
         <v>75622</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>60365</v>
+        <v>60827</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>91994</v>
+        <v>91341</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2805923699918346</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2239809781755346</v>
+        <v>0.2256967045021444</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3413391688107975</v>
+        <v>0.3389163925860915</v>
       </c>
     </row>
     <row r="26">
@@ -7096,19 +7096,19 @@
         <v>32610</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>22099</v>
+        <v>23821</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>44310</v>
+        <v>45418</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1992940884529987</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1350584807937407</v>
+        <v>0.1455815655821347</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2707936764528375</v>
+        <v>0.2775650780888456</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -7117,19 +7117,19 @@
         <v>11650</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5795</v>
+        <v>6133</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20642</v>
+        <v>19694</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1100278341572701</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05472847679628498</v>
+        <v>0.05792320605436276</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1949579936259945</v>
+        <v>0.1860021851278175</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>39</v>
@@ -7138,19 +7138,19 @@
         <v>44260</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>33415</v>
+        <v>32832</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>58129</v>
+        <v>58205</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1642249915785666</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1239853756190429</v>
+        <v>0.121820889728765</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2156850845926334</v>
+        <v>0.2159659285537814</v>
       </c>
     </row>
     <row r="27">
@@ -7167,19 +7167,19 @@
         <v>17655</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10078</v>
+        <v>10759</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>27243</v>
+        <v>26593</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1078948424566807</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06158836950689396</v>
+        <v>0.06575432560193585</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1664937896586569</v>
+        <v>0.1625225602490135</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>5</v>
@@ -7188,19 +7188,19 @@
         <v>5493</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2041</v>
+        <v>2068</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>11081</v>
+        <v>11065</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05188151736905263</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01927966462032933</v>
+        <v>0.01952892878347744</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1046587490796439</v>
+        <v>0.1045039824793941</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>21</v>
@@ -7209,19 +7209,19 @@
         <v>23148</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>15556</v>
+        <v>14504</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>33553</v>
+        <v>33801</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.08588947503923006</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05771935429640528</v>
+        <v>0.05381636729231294</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1244979208191516</v>
+        <v>0.1254170206339678</v>
       </c>
     </row>
     <row r="28">
@@ -7313,19 +7313,19 @@
         <v>561790</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>528007</v>
+        <v>521231</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>600508</v>
+        <v>596824</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4007339139700258</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3766359891446943</v>
+        <v>0.3718026201139298</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4283518736623667</v>
+        <v>0.4257244723637947</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>543</v>
@@ -7334,19 +7334,19 @@
         <v>558881</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>528772</v>
+        <v>524991</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>591181</v>
+        <v>592932</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5420844534648691</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.512879946560297</v>
+        <v>0.5092126374945959</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5734136748692129</v>
+        <v>0.5751122681634404</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1057</v>
@@ -7355,19 +7355,19 @@
         <v>1120671</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1069390</v>
+        <v>1070445</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1172950</v>
+        <v>1175077</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4606340299360229</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4395559546821061</v>
+        <v>0.4399895528653998</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4821228598502546</v>
+        <v>0.4829969357018036</v>
       </c>
     </row>
     <row r="30">
@@ -7384,19 +7384,19 @@
         <v>393868</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>360441</v>
+        <v>358011</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>431103</v>
+        <v>429528</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2809524672297591</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2571083442521894</v>
+        <v>0.2553751541107379</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3075129004028994</v>
+        <v>0.3063894424652656</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>273</v>
@@ -7405,19 +7405,19 @@
         <v>277667</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>249941</v>
+        <v>247825</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>305585</v>
+        <v>307884</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2693218886269167</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2424288450875897</v>
+        <v>0.2403765759648341</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2964007658673046</v>
+        <v>0.2986305546924978</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>643</v>
@@ -7426,19 +7426,19 @@
         <v>671535</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>629362</v>
+        <v>627855</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>718442</v>
+        <v>718499</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2760237771126102</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2586894344553078</v>
+        <v>0.2580700962215677</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2953042000099326</v>
+        <v>0.295327636501885</v>
       </c>
     </row>
     <row r="31">
@@ -7455,19 +7455,19 @@
         <v>285493</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>255614</v>
+        <v>257256</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>315693</v>
+        <v>320324</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2036464170463528</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1823333772297378</v>
+        <v>0.1835047672605604</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2251889455626442</v>
+        <v>0.2284923999043774</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>133</v>
@@ -7476,19 +7476,19 @@
         <v>133802</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>112730</v>
+        <v>113871</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>157394</v>
+        <v>155327</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1297808020625806</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1093425202918732</v>
+        <v>0.1104489213563393</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1526637333823402</v>
+        <v>0.1506590067014791</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>405</v>
@@ -7497,19 +7497,19 @@
         <v>419294</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>381455</v>
+        <v>383853</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>458913</v>
+        <v>457638</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1723443865112019</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1567912516205335</v>
+        <v>0.1577767447062857</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1886289305712182</v>
+        <v>0.188104796544044</v>
       </c>
     </row>
     <row r="32">
@@ -7526,19 +7526,19 @@
         <v>160752</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>140068</v>
+        <v>134988</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>187263</v>
+        <v>185442</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1146672017538623</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09991261708730485</v>
+        <v>0.09628929513237668</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1335779140856271</v>
+        <v>0.1322787498442992</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>58</v>
@@ -7547,19 +7547,19 @@
         <v>60635</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>45547</v>
+        <v>45418</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>76985</v>
+        <v>76611</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05881285584563352</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04417771669259915</v>
+        <v>0.04405336619614954</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07467108569209968</v>
+        <v>0.07430844096880686</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>206</v>
@@ -7568,19 +7568,19 @@
         <v>221387</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>193300</v>
+        <v>195080</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>249664</v>
+        <v>251263</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09099780644016507</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07945290794146928</v>
+        <v>0.0801845558224324</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1026203237546595</v>
+        <v>0.1032775773949083</v>
       </c>
     </row>
     <row r="33">
@@ -7913,19 +7913,19 @@
         <v>10309</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3291</v>
+        <v>3508</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22030</v>
+        <v>20762</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.215269721034974</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0687222775020903</v>
+        <v>0.07325146138944735</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4600198074446049</v>
+        <v>0.4335366620445448</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -7934,19 +7934,19 @@
         <v>18710</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10276</v>
+        <v>10925</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27957</v>
+        <v>28151</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3949315474034382</v>
+        <v>0.3949315474034381</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2169179534006857</v>
+        <v>0.2306113718772044</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5901317582656447</v>
+        <v>0.5942180355078548</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -7955,19 +7955,19 @@
         <v>29019</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17103</v>
+        <v>17474</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42529</v>
+        <v>41274</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3046167395471496</v>
+        <v>0.3046167395471495</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1795287309691377</v>
+        <v>0.1834292103815482</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4464288318278875</v>
+        <v>0.433261315467917</v>
       </c>
     </row>
     <row r="5">
@@ -7984,19 +7984,19 @@
         <v>19692</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9717</v>
+        <v>10293</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32138</v>
+        <v>31263</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4111967068549966</v>
+        <v>0.4111967068549965</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2029028508186274</v>
+        <v>0.2149340517347836</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.671096497594097</v>
+        <v>0.6528225716568586</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -8005,19 +8005,19 @@
         <v>15656</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8087</v>
+        <v>8733</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24289</v>
+        <v>23947</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3304638572990417</v>
+        <v>0.3304638572990418</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1706914924042333</v>
+        <v>0.1843412712955148</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5126986404161861</v>
+        <v>0.5054703879774093</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -8026,19 +8026,19 @@
         <v>35347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23121</v>
+        <v>21936</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49606</v>
+        <v>48762</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.371047725017179</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2427041363796111</v>
+        <v>0.2302671060729544</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5207172156804544</v>
+        <v>0.5118601388138218</v>
       </c>
     </row>
     <row r="6">
@@ -8055,19 +8055,19 @@
         <v>6250</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1415</v>
+        <v>1380</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17394</v>
+        <v>17887</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1305153843802115</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02954410311112933</v>
+        <v>0.02881814469766141</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3632249118615982</v>
+        <v>0.373512091919377</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -8076,19 +8076,19 @@
         <v>8151</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3054</v>
+        <v>2882</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16669</v>
+        <v>17118</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1720566450329527</v>
+        <v>0.1720566450329526</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06446648764509798</v>
+        <v>0.0608265902712271</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3518454421303459</v>
+        <v>0.3613230568544162</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -8097,19 +8097,19 @@
         <v>14401</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6916</v>
+        <v>7331</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>27892</v>
+        <v>27483</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1511741289760032</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.072600197446322</v>
+        <v>0.07695548582202458</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2927866713532196</v>
+        <v>0.2884906460361723</v>
       </c>
     </row>
     <row r="7">
@@ -8126,19 +8126,19 @@
         <v>11638</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3927</v>
+        <v>3731</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23852</v>
+        <v>23049</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2430181877298178</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08199899999184486</v>
+        <v>0.07790664951818338</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4980758252452285</v>
+        <v>0.4813090994283776</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -8147,19 +8147,19 @@
         <v>4858</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12896</v>
+        <v>14731</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1025479502645677</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02080900513401169</v>
+        <v>0.02046995509085283</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2722068838931334</v>
+        <v>0.3109461478233344</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -8168,19 +8168,19 @@
         <v>16496</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7347</v>
+        <v>8049</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31428</v>
+        <v>31660</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1731614064596681</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07712345994358047</v>
+        <v>0.08449023668290767</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3299007755546545</v>
+        <v>0.3323347998571593</v>
       </c>
     </row>
     <row r="8">
@@ -8272,19 +8272,19 @@
         <v>75837</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>56325</v>
+        <v>58468</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>94385</v>
+        <v>93251</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3819741293470328</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2836957431705974</v>
+        <v>0.2944892464719863</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.475397812952125</v>
+        <v>0.4696865920028965</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>81</v>
@@ -8293,19 +8293,19 @@
         <v>85334</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>71124</v>
+        <v>72341</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>98681</v>
+        <v>98290</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5342862205791373</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4453151367646889</v>
+        <v>0.4529329372347812</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6178558459507159</v>
+        <v>0.6154055623944436</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>126</v>
@@ -8314,19 +8314,19 @@
         <v>161170</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>137791</v>
+        <v>137570</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>183917</v>
+        <v>182829</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4498773966893272</v>
+        <v>0.4498773966893271</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3846186110899016</v>
+        <v>0.3840009104226726</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5133696083169275</v>
+        <v>0.5103326241871974</v>
       </c>
     </row>
     <row r="10">
@@ -8343,19 +8343,19 @@
         <v>46461</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32911</v>
+        <v>32083</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64090</v>
+        <v>62448</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2340126006303636</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1657647387373732</v>
+        <v>0.1615953105070983</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.322808823184022</v>
+        <v>0.314535480211913</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -8364,19 +8364,19 @@
         <v>48425</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37766</v>
+        <v>36574</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62680</v>
+        <v>61252</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3031917306399392</v>
+        <v>0.3031917306399391</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2364552245212895</v>
+        <v>0.2289954830774192</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.392449485781989</v>
+        <v>0.383505440224629</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>76</v>
@@ -8385,19 +8385,19 @@
         <v>94885</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77695</v>
+        <v>76109</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115623</v>
+        <v>116849</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.26485380910927</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2168722041011331</v>
+        <v>0.2124431337515369</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3227413040895912</v>
+        <v>0.3261619811655999</v>
       </c>
     </row>
     <row r="11">
@@ -8414,19 +8414,19 @@
         <v>45180</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30914</v>
+        <v>31312</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>63063</v>
+        <v>62114</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.227561357081673</v>
+        <v>0.2275613570816731</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1557075816716285</v>
+        <v>0.1577096211224783</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3176341661115712</v>
+        <v>0.312856335514279</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -8435,19 +8435,19 @@
         <v>13424</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7565</v>
+        <v>7876</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21832</v>
+        <v>22934</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.08405204124895613</v>
+        <v>0.08405204124895614</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0473668994443949</v>
+        <v>0.0493099776065626</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1366949980743028</v>
+        <v>0.1435904300115225</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>42</v>
@@ -8456,19 +8456,19 @@
         <v>58604</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42219</v>
+        <v>42701</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>77386</v>
+        <v>78136</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1635825136407479</v>
+        <v>0.1635825136407478</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1178478510603073</v>
+        <v>0.1191932883022697</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2160092347566344</v>
+        <v>0.2181008869875986</v>
       </c>
     </row>
     <row r="12">
@@ -8485,19 +8485,19 @@
         <v>31062</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19103</v>
+        <v>18922</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48418</v>
+        <v>47486</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1564519129409305</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09621868087292737</v>
+        <v>0.09530745645354981</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2438716089909591</v>
+        <v>0.2391751087322971</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -8506,19 +8506,19 @@
         <v>12533</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6573</v>
+        <v>6773</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21061</v>
+        <v>22160</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07847000753196741</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04115613007672411</v>
+        <v>0.04240849915193205</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1318639603195242</v>
+        <v>0.1387442331084061</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>28</v>
@@ -8527,19 +8527,19 @@
         <v>43595</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>29554</v>
+        <v>29558</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>61927</v>
+        <v>61936</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.121686280560655</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08249375489105847</v>
+        <v>0.08250546598607589</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1728566953521717</v>
+        <v>0.1728823791619001</v>
       </c>
     </row>
     <row r="13">
@@ -8631,19 +8631,19 @@
         <v>114433</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>97765</v>
+        <v>98293</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>132669</v>
+        <v>133174</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4159012758438114</v>
+        <v>0.4159012758438113</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.355321697562707</v>
+        <v>0.3572423884799457</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.482181174757046</v>
+        <v>0.4840169407361868</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>125</v>
@@ -8652,19 +8652,19 @@
         <v>90902</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>78422</v>
+        <v>79671</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>101984</v>
+        <v>102470</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5084815128725613</v>
+        <v>0.5084815128725612</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4386724335823478</v>
+        <v>0.4456592465681984</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5704741137014875</v>
+        <v>0.5731916360310654</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>222</v>
@@ -8673,19 +8673,19 @@
         <v>205335</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>185692</v>
+        <v>183194</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>225395</v>
+        <v>227569</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4523633748411111</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.409089555719496</v>
+        <v>0.4035868752870028</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4965583173939753</v>
+        <v>0.5013469982465092</v>
       </c>
     </row>
     <row r="15">
@@ -8702,19 +8702,19 @@
         <v>72182</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>57701</v>
+        <v>55418</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>87051</v>
+        <v>87343</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2623428323857461</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2097132376093134</v>
+        <v>0.2014150662185406</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3163852068761692</v>
+        <v>0.3174450739586472</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>66</v>
@@ -8723,19 +8723,19 @@
         <v>47834</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>38515</v>
+        <v>39073</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>59360</v>
+        <v>57107</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2675690957374006</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.215443926670446</v>
+        <v>0.2185650912098484</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3320436952012968</v>
+        <v>0.3194433388168513</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>132</v>
@@ -8744,19 +8744,19 @@
         <v>120016</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>103233</v>
+        <v>102869</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>139183</v>
+        <v>139139</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2644011607917838</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2274288251689075</v>
+        <v>0.226626037047741</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3066286887798617</v>
+        <v>0.3065298775080814</v>
       </c>
     </row>
     <row r="16">
@@ -8773,19 +8773,19 @@
         <v>60649</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46573</v>
+        <v>47619</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78260</v>
+        <v>77110</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2204268222227181</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.169267397410851</v>
+        <v>0.1730693628991168</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2844314265007867</v>
+        <v>0.2802525630116641</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -8794,19 +8794,19 @@
         <v>22198</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15369</v>
+        <v>15729</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30884</v>
+        <v>31321</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.124167320086554</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08596984342645832</v>
+        <v>0.08798505417519044</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1727592182933823</v>
+        <v>0.1752003054441807</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>81</v>
@@ -8815,19 +8815,19 @@
         <v>82847</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>66024</v>
+        <v>66925</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>99503</v>
+        <v>101102</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1825156695948667</v>
+        <v>0.1825156695948666</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1454534826468664</v>
+        <v>0.147438691206271</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2192099192166688</v>
+        <v>0.2227340333783982</v>
       </c>
     </row>
     <row r="17">
@@ -8844,19 +8844,19 @@
         <v>27880</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18779</v>
+        <v>19093</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41437</v>
+        <v>41095</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1013290695477245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06825234485893089</v>
+        <v>0.0693941871821236</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1505996397022617</v>
+        <v>0.1493572491952896</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -8865,19 +8865,19 @@
         <v>17838</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12003</v>
+        <v>11785</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25694</v>
+        <v>25676</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09978207130348424</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06714231101842102</v>
+        <v>0.06592506281751624</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1437281412589464</v>
+        <v>0.1436231534862762</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -8886,19 +8886,19 @@
         <v>45718</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34685</v>
+        <v>33775</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59443</v>
+        <v>60088</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1007197947722384</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07641374817758444</v>
+        <v>0.07440776038406254</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1309567089568767</v>
+        <v>0.1323772276164536</v>
       </c>
     </row>
     <row r="18">
@@ -8990,19 +8990,19 @@
         <v>128579</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>112279</v>
+        <v>110805</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>146196</v>
+        <v>143855</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.4493994656502437</v>
+        <v>0.4493994656502436</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3924286311153537</v>
+        <v>0.3872757326929956</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5109723413922955</v>
+        <v>0.5027882090939401</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>186</v>
@@ -9011,19 +9011,19 @@
         <v>120083</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>107837</v>
+        <v>108467</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>131700</v>
+        <v>131943</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5361140009097419</v>
+        <v>0.536114000909742</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4814405036616814</v>
+        <v>0.4842551402063275</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.587976602798158</v>
+        <v>0.5890628832264863</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>305</v>
@@ -9032,19 +9032,19 @@
         <v>248663</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>226821</v>
+        <v>228564</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>269681</v>
+        <v>269597</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4874761787323376</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4446579239919415</v>
+        <v>0.4480755761007021</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.528680804865474</v>
+        <v>0.5285149507337206</v>
       </c>
     </row>
     <row r="20">
@@ -9061,19 +9061,19 @@
         <v>66045</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>52308</v>
+        <v>53465</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>81482</v>
+        <v>81786</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2308348220194195</v>
+        <v>0.2308348220194194</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1828207735657661</v>
+        <v>0.1868650697949913</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2847886398256012</v>
+        <v>0.2858501031969289</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>102</v>
@@ -9082,19 +9082,19 @@
         <v>61992</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50824</v>
+        <v>50998</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72891</v>
+        <v>73245</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2767628341683977</v>
+        <v>0.2767628341683978</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2269040443486045</v>
+        <v>0.2276797561355315</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3254258946607839</v>
+        <v>0.3270039784248488</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>170</v>
@@ -9103,19 +9103,19 @@
         <v>128037</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>112922</v>
+        <v>112081</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>148965</v>
+        <v>145138</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2510020031707019</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2213712515643756</v>
+        <v>0.2197222651489693</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2920290517889865</v>
+        <v>0.284527442453247</v>
       </c>
     </row>
     <row r="21">
@@ -9132,19 +9132,19 @@
         <v>57202</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>44246</v>
+        <v>44071</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>72342</v>
+        <v>71383</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1999266276987176</v>
+        <v>0.1999266276987175</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1546429323947952</v>
+        <v>0.1540339059350837</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2528445027734061</v>
+        <v>0.2494913645886147</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>38</v>
@@ -9153,19 +9153,19 @@
         <v>26349</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19104</v>
+        <v>19462</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>35381</v>
+        <v>34418</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1176355892989922</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08528859695007357</v>
+        <v>0.086889231214598</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1579583587348972</v>
+        <v>0.1536601289173731</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>91</v>
@@ -9174,19 +9174,19 @@
         <v>83551</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>67848</v>
+        <v>68261</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>101368</v>
+        <v>100463</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1637922904852721</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1330090058677918</v>
+        <v>0.1338178898516937</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1987216635666</v>
+        <v>0.1969473671292749</v>
       </c>
     </row>
     <row r="22">
@@ -9203,19 +9203,19 @@
         <v>34288</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23858</v>
+        <v>23647</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47693</v>
+        <v>46285</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1198390846316194</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08338777242891915</v>
+        <v>0.08264798255436127</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1666917519308793</v>
+        <v>0.1617695160690788</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -9224,19 +9224,19 @@
         <v>15564</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10256</v>
+        <v>10071</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23112</v>
+        <v>21975</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.069487575622868</v>
+        <v>0.06948757562286802</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04578877924918762</v>
+        <v>0.0449642257963424</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1031834622099579</v>
+        <v>0.0981057421060204</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>53</v>
@@ -9245,19 +9245,19 @@
         <v>49852</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>37632</v>
+        <v>37421</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65876</v>
+        <v>64727</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09772952761168842</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07377251690314013</v>
+        <v>0.07335936143615301</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1291420468604358</v>
+        <v>0.1268904310523001</v>
       </c>
     </row>
     <row r="23">
@@ -9349,19 +9349,19 @@
         <v>64140</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>51652</v>
+        <v>52577</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>76126</v>
+        <v>76455</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3975654677986495</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3201606314019649</v>
+        <v>0.3258904635350859</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4718561584222259</v>
+        <v>0.4738949020492639</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>77</v>
@@ -9370,19 +9370,19 @@
         <v>46800</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39068</v>
+        <v>38809</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>54922</v>
+        <v>53928</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4612036090172389</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.385005636204169</v>
+        <v>0.3824544336519193</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5412457008713221</v>
+        <v>0.5314554736884827</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>145</v>
@@ -9391,19 +9391,19 @@
         <v>110940</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>97099</v>
+        <v>96538</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>124774</v>
+        <v>125175</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4221370213099318</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.369472041834572</v>
+        <v>0.3673351561302718</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4747768185100003</v>
+        <v>0.476301573430266</v>
       </c>
     </row>
     <row r="25">
@@ -9420,19 +9420,19 @@
         <v>37731</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28782</v>
+        <v>28547</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48877</v>
+        <v>49049</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2338734059365309</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1783981941311596</v>
+        <v>0.1769441485256453</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3029559397369602</v>
+        <v>0.3040207851652321</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>54</v>
@@ -9441,19 +9441,19 @@
         <v>30872</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24422</v>
+        <v>24408</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37452</v>
+        <v>38674</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3042390386206675</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2406774078877302</v>
+        <v>0.2405345086831983</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3690799749656867</v>
+        <v>0.3811258063730565</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>95</v>
@@ -9462,19 +9462,19 @@
         <v>68604</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>56410</v>
+        <v>56873</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>81676</v>
+        <v>81738</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2610425355771125</v>
+        <v>0.2610425355771124</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.214643360727273</v>
+        <v>0.2164060574322565</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3107849675342444</v>
+        <v>0.3110187085140252</v>
       </c>
     </row>
     <row r="26">
@@ -9491,19 +9491,19 @@
         <v>39818</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>30379</v>
+        <v>29384</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>51608</v>
+        <v>51074</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2468052373113354</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1883017239246244</v>
+        <v>0.1821312306668448</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3198855789273146</v>
+        <v>0.3165760775452899</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>31</v>
@@ -9512,19 +9512,19 @@
         <v>19786</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13809</v>
+        <v>14076</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26670</v>
+        <v>26610</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1949885237169561</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1360823497488075</v>
+        <v>0.1387129992596402</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2628239046367334</v>
+        <v>0.262233361736364</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>73</v>
@@ -9533,19 +9533,19 @@
         <v>59604</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>46908</v>
+        <v>47281</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>72673</v>
+        <v>72395</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2267980980944667</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1784897790353465</v>
+        <v>0.1799089603757904</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2765272938405766</v>
+        <v>0.2754712523759055</v>
       </c>
     </row>
     <row r="27">
@@ -9562,19 +9562,19 @@
         <v>19643</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12652</v>
+        <v>12550</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30849</v>
+        <v>28621</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1217558889534841</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07842164892220151</v>
+        <v>0.07778659922724407</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1912132113027148</v>
+        <v>0.1774031399618578</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -9583,19 +9583,19 @@
         <v>4015</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1351</v>
+        <v>1360</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8110</v>
+        <v>8106</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.0395688286451374</v>
+        <v>0.03956882864513741</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01330955164888701</v>
+        <v>0.01340028589497354</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07992351244487687</v>
+        <v>0.07988061602629259</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>25</v>
@@ -9604,19 +9604,19 @@
         <v>23658</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>15450</v>
+        <v>15448</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>34287</v>
+        <v>34045</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09002234501848928</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05878739247942064</v>
+        <v>0.05878157796092932</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1304653657300865</v>
+        <v>0.1295433518242089</v>
       </c>
     </row>
     <row r="28">
@@ -9708,19 +9708,19 @@
         <v>393298</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>360123</v>
+        <v>357936</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>427428</v>
+        <v>424485</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.40587287650183</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.371636681205858</v>
+        <v>0.3693800320012117</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4410937388331229</v>
+        <v>0.4380564662603861</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>480</v>
@@ -9729,19 +9729,19 @@
         <v>361828</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>337437</v>
+        <v>337201</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>384333</v>
+        <v>387058</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5086696752265796</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4743798667191167</v>
+        <v>0.4740475461491043</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.540307605663949</v>
+        <v>0.5441376166362841</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>814</v>
@@ -9750,19 +9750,19 @@
         <v>755127</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>711852</v>
+        <v>711460</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>793484</v>
+        <v>798365</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4493888979572188</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4236355337508467</v>
+        <v>0.4234023743025748</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4722161928827699</v>
+        <v>0.4751207754069924</v>
       </c>
     </row>
     <row r="30">
@@ -9779,19 +9779,19 @@
         <v>242111</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>215705</v>
+        <v>211739</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>275693</v>
+        <v>273290</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2498516648358639</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2226016433285242</v>
+        <v>0.2185087867764121</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2845076135419248</v>
+        <v>0.2820278603955017</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>280</v>
@@ -9800,19 +9800,19 @@
         <v>204778</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>185829</v>
+        <v>181095</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>226754</v>
+        <v>225482</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2878825821016478</v>
+        <v>0.2878825821016477</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2612447922463951</v>
+        <v>0.2545891243124226</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3187776497251338</v>
+        <v>0.3169897793127593</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>494</v>
@@ -9821,19 +9821,19 @@
         <v>446888</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>405517</v>
+        <v>410971</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>482252</v>
+        <v>485444</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2659509425588726</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2413298970458062</v>
+        <v>0.2445757526966062</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2869967505366838</v>
+        <v>0.2888959496596797</v>
       </c>
     </row>
     <row r="31">
@@ -9850,19 +9850,19 @@
         <v>209099</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>181892</v>
+        <v>182414</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>240121</v>
+        <v>239696</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2157840357139325</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.187707749054856</v>
+        <v>0.1882465254330329</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2477981157138803</v>
+        <v>0.2473597728355405</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>118</v>
@@ -9871,19 +9871,19 @@
         <v>89908</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>75360</v>
+        <v>75457</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>106422</v>
+        <v>109309</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1263957632182221</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1059428414265034</v>
+        <v>0.1060796186881353</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1496114521408379</v>
+        <v>0.153670592601574</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>295</v>
@@ -9892,19 +9892,19 @@
         <v>299007</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>267349</v>
+        <v>265973</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>334903</v>
+        <v>333015</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1779441220975665</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1591040480904544</v>
+        <v>0.1582850023249018</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1993063594889404</v>
+        <v>0.1981830335138467</v>
       </c>
     </row>
     <row r="32">
@@ -9921,19 +9921,19 @@
         <v>124511</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>100225</v>
+        <v>103043</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>150246</v>
+        <v>151948</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1284914229483737</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1034298457797188</v>
+        <v>0.106337316505639</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1550497701633039</v>
+        <v>0.1568066398729216</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>66</v>
@@ -9942,19 +9942,19 @@
         <v>54809</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>43054</v>
+        <v>42847</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>70407</v>
+        <v>70297</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07705197945355062</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06052661160242331</v>
+        <v>0.06023548558145923</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09897994294817831</v>
+        <v>0.09882635520827165</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>161</v>
@@ -9963,19 +9963,19 @@
         <v>179319</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>152349</v>
+        <v>152546</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>211621</v>
+        <v>211900</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1067160373863421</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09066576778549879</v>
+        <v>0.09078292128441365</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1259395941875019</v>
+        <v>0.1261053143540515</v>
       </c>
     </row>
     <row r="33">
